--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -31,19 +31,19 @@
     <t xml:space="preserve">vencimento</t>
   </si>
   <si>
-    <t xml:space="preserve">Bruno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cida Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcio Roberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tia Gisele</t>
+    <t xml:space="preserve">Bruna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cida Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcia Rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tito Galdino</t>
   </si>
 </sst>
 </file>
@@ -258,12 +258,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.42"/>
   </cols>
   <sheetData>
